--- a/SAFTNeuralNetwork/refrigerant_data.xlsx
+++ b/SAFTNeuralNetwork/refrigerant_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usmaan Hafiz\Google Drive\University\Year 4\Research Project\machine-learning\SAFTNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561958C3-7C9E-4F1F-A955-F98EE5173168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E2F78-3D4D-4951-871D-174BD0BD6EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DB35248F-DB84-41E5-9A3F-B7F68B8E24E8}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:M1401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
